--- a/Results/RiskTransfer/CompareApproaches(2).xlsx
+++ b/Results/RiskTransfer/CompareApproaches(2).xlsx
@@ -165,11 +165,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ \ #,##0.0_);\(&quot;$&quot;\ \ #,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ \ #,##0.00_);\(&quot;$&quot;\ \ #,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ \ #,##0.0_);\(&quot;$&quot;\ \ #,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ \ #,##0.00_);\(&quot;$&quot;\ \ #,##0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -280,8 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -291,13 +291,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,24 +305,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -340,16 +325,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -358,23 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,367 +993,367 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27">
-        <v>134.9</v>
-      </c>
-      <c r="D6" s="27">
-        <v>128.79</v>
-      </c>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="22">
+        <v>140.32</v>
+      </c>
+      <c r="D6" s="22">
+        <v>133.44999999999999</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <v>36.200000000000003</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="22">
         <v>29.3</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29">
-        <v>169.6</v>
-      </c>
-      <c r="D7" s="30">
-        <v>157.4</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="24">
+        <v>175</v>
+      </c>
+      <c r="D7" s="25">
+        <v>162.15</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>58.97</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <v>46.1</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="23">
         <f>C7-C6</f>
-        <v>34.699999999999989</v>
-      </c>
-      <c r="D8" s="28">
+        <v>34.680000000000007</v>
+      </c>
+      <c r="D8" s="23">
         <f>D7-D6</f>
-        <v>28.610000000000014</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
+        <v>28.700000000000017</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <f>F7-F6</f>
         <v>22.769999999999996</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="23">
         <f>G7-G6</f>
         <v>16.8</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <f>+C8/C6</f>
-        <v>0.25722757598220897</v>
-      </c>
-      <c r="D9" s="33">
+        <v>0.2471493728620297</v>
+      </c>
+      <c r="D9" s="28">
         <f>+D8/D6</f>
-        <v>0.22214457644227048</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+        <v>0.21506182090670678</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <f>+F8/F6</f>
         <v>0.62900552486187833</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="28">
         <f>+G8/G6</f>
         <v>0.57337883959044367</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="35">
+      <c r="C11" s="21"/>
+      <c r="D11" s="30">
         <f>C8-D8</f>
-        <v>6.089999999999975</v>
-      </c>
-      <c r="E11" s="36" t="s">
+        <v>5.9799999999999898</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="35">
+      <c r="F11" s="23"/>
+      <c r="G11" s="30">
         <f>F8-G8</f>
         <v>5.9699999999999953</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="27">
-        <v>132.4</v>
-      </c>
-      <c r="D16" s="27">
-        <v>127.32</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="C16" s="22">
+        <v>140.66</v>
+      </c>
+      <c r="D16" s="22">
+        <v>133.79</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <v>36.200000000000003</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="22">
         <v>29.33</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29">
-        <v>192.07</v>
-      </c>
-      <c r="D17" s="30">
-        <v>183.46</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="C17" s="24">
+        <v>200.45</v>
+      </c>
+      <c r="D17" s="25">
+        <v>189.95</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="25">
         <v>36.200000000000003</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="25">
         <v>29.33</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="23">
         <f>C17-C16</f>
-        <v>59.669999999999987</v>
-      </c>
-      <c r="D18" s="28">
+        <v>59.789999999999992</v>
+      </c>
+      <c r="D18" s="23">
         <f>D17-D16</f>
-        <v>56.140000000000015</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28">
+        <v>56.16</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
         <f>F17-F16</f>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="23">
         <f>G17-G16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <f>+C18/C16</f>
-        <v>0.45067975830815699</v>
-      </c>
-      <c r="D19" s="33">
+        <v>0.42506753874591208</v>
+      </c>
+      <c r="D19" s="28">
         <f>+D18/D16</f>
-        <v>0.44093622368834445</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33">
+        <v>0.41976231407429554</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28">
         <f>+F18/F16</f>
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="28">
         <f>+G18/G16</f>
         <v>0</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="35">
+      <c r="C21" s="21"/>
+      <c r="D21" s="30">
         <f>C18-D18</f>
-        <v>3.5299999999999727</v>
-      </c>
-      <c r="E21" s="36" t="s">
+        <v>3.6299999999999955</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="35">
+      <c r="F21" s="23"/>
+      <c r="G21" s="30">
         <f>F18-G18</f>
         <v>0</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1393,36 +1393,36 @@
   <sheetData>
     <row r="1" spans="1:23" ht="244.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3603,36 +3603,36 @@
   <sheetData>
     <row r="1" spans="1:23" ht="244.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5806,28 +5806,28 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="8">
         <f>SUM(B37:B38)</f>
         <v>132.39608699363367</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="8">
         <f>SUM(H37:H38)</f>
         <v>192.07048430802018</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="N39" s="8">
         <f>SUM(N37:N38)</f>
         <v>127.3286069087613</v>
       </c>
-      <c r="S39" s="19" t="s">
+      <c r="S39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="T39" s="8">
